--- a/src/assets/documents/Esquema-Preguntas-De-Perfiles.xlsx
+++ b/src/assets/documents/Esquema-Preguntas-De-Perfiles.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FEB168-63F2-4740-B494-A6B48B480F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C367B6-E097-4B98-9BCA-18B0DC07FCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
     <sheet name="seccion" sheetId="2" r:id="rId2"/>
     <sheet name="pregunta" sheetId="3" r:id="rId3"/>
     <sheet name="respuesta" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejemplo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>nombre</t>
   </si>
@@ -99,13 +100,79 @@
   </si>
   <si>
     <t>Plazo Fijo</t>
+  </si>
+  <si>
+    <t>Categorias Existentes Actuales</t>
+  </si>
+  <si>
+    <t>Test Inversor</t>
+  </si>
+  <si>
+    <t>Test Conocimiento Moderado</t>
+  </si>
+  <si>
+    <t>Test Conocimiento Arriesgado</t>
+  </si>
+  <si>
+    <t>Test Conocimiento</t>
+  </si>
+  <si>
+    <t>Secciones Actuales</t>
+  </si>
+  <si>
+    <t>Tolerancia al riesgo</t>
+  </si>
+  <si>
+    <t>Horizonte Temporal</t>
+  </si>
+  <si>
+    <t>Nivel De Conocimiento</t>
+  </si>
+  <si>
+    <t>*test Basico Conservador</t>
+  </si>
+  <si>
+    <t>*test Inicial</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
+    <t>BOTON</t>
+  </si>
+  <si>
+    <t>RADIO</t>
+  </si>
+  <si>
+    <t>CategoriaA</t>
+  </si>
+  <si>
+    <t>SeccionA</t>
+  </si>
+  <si>
+    <t>Categoria Prueba A</t>
+  </si>
+  <si>
+    <t>Seccion Prueba A</t>
+  </si>
+  <si>
+    <t>Categoria A</t>
+  </si>
+  <si>
+    <t>Seccion A</t>
+  </si>
+  <si>
+    <t>Enunciado 1</t>
+  </si>
+  <si>
+    <t>Descripcion opcional 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +211,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,11 +243,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -180,13 +271,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
     <dxf>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -211,7 +421,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2137F13F-EFBA-460F-8AD5-8A51D882A0A6}" name="Tabla1" displayName="Tabla1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2137F13F-EFBA-460F-8AD5-8A51D882A0A6}" name="Tabla1" displayName="Tabla1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:C2" xr:uid="{2137F13F-EFBA-460F-8AD5-8A51D882A0A6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7242EEB6-F316-4102-BC08-C539ED7E8752}" name="id"/>
@@ -222,8 +432,38 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F9D48B4E-61CC-4CCB-BF1A-B1E81E7AC077}" name="Tabla311" displayName="Tabla311" ref="A7:F8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A7:F8" xr:uid="{F9D48B4E-61CC-4CCB-BF1A-B1E81E7AC077}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{269BADF5-6D9E-431C-AD48-445A2B064AA2}" name="id"/>
+    <tableColumn id="2" xr3:uid="{7AFFF866-A1EB-48CA-8248-E25DFB6EF530}" name="enunciado"/>
+    <tableColumn id="3" xr3:uid="{9B2BC216-1E74-4EC9-B4CD-3A47530B051E}" name="descripcion"/>
+    <tableColumn id="4" xr3:uid="{103062AA-4D9A-4B61-A4CA-3A5024F32E77}" name="tipocomponente"/>
+    <tableColumn id="5" xr3:uid="{564CCA3B-018D-43CA-B2A4-AD95B506CC8F}" name="categoria"/>
+    <tableColumn id="6" xr3:uid="{4F051E4F-4540-4DB5-92DB-EBB1FCC8B574}" name="seccion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{85172B18-5EF8-4898-A83B-0ADAEC18BBD1}" name="Tabla412" displayName="Tabla412" ref="A10:F11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A10:F11" xr:uid="{85172B18-5EF8-4898-A83B-0ADAEC18BBD1}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CE49D8BF-3E83-467C-A6F8-58EBD53BCF71}" name="id"/>
+    <tableColumn id="2" xr3:uid="{D0FC9B7A-0799-4001-B6BC-6A0520FA751A}" name="instrumento"/>
+    <tableColumn id="3" xr3:uid="{4BF3D802-A96B-4DEB-B4AC-1894723C7A16}" name="nombre"/>
+    <tableColumn id="4" xr3:uid="{D320EDF4-F237-420D-89D1-DEBAC719317C}" name="valor"/>
+    <tableColumn id="5" xr3:uid="{5B17A04A-F8A5-485A-BC9D-9832888E8B49}" name="orden"/>
+    <tableColumn id="6" xr3:uid="{09DEBF7A-3293-463C-AF0B-B0669FAF5574}" name="pregunta"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{075C6EED-5EB8-4DCC-A013-2901F2364AAB}" name="Tabla2" displayName="Tabla2" ref="A1:C2" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{075C6EED-5EB8-4DCC-A013-2901F2364AAB}" name="Tabla2" displayName="Tabla2" ref="A1:C2" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:C2" xr:uid="{075C6EED-5EB8-4DCC-A013-2901F2364AAB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FD451E5F-1276-40AF-A717-599EE061B6CC}" name="id"/>
@@ -235,7 +475,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64CE9328-4825-4217-9282-30EC473F48FD}" name="Tabla3" displayName="Tabla3" ref="A1:F2" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64CE9328-4825-4217-9282-30EC473F48FD}" name="Tabla3" displayName="Tabla3" ref="A1:F2" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:F2" xr:uid="{64CE9328-4825-4217-9282-30EC473F48FD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BB611283-148C-4006-AAD0-79E8E3DF0FD2}" name="id"/>
@@ -250,7 +490,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFDDDC11-55F3-42AB-8D08-60BFBC26FFDE}" name="Tabla4" displayName="Tabla4" ref="A1:F2" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD69F1CF-FE9E-43F4-842C-DEFDAA7CA53E}" name="Tabla5" displayName="Tabla5" ref="I1:I5" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="I1:I5" xr:uid="{BD69F1CF-FE9E-43F4-842C-DEFDAA7CA53E}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F3A1EF9F-50F8-48F6-B865-25C406445918}" name="Categorias Existentes Actuales" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15A47E29-B20E-4415-9416-6B199384AE77}" name="Tabla6" displayName="Tabla6" ref="I8:I12" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="I8:I12" xr:uid="{15A47E29-B20E-4415-9416-6B199384AE77}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5857B448-42C9-4965-9AAE-7C6BE6FD4566}" name="Secciones Actuales" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DA8CFC28-218D-40FD-B2F3-FFEF060BD5FE}" name="Tabla7" displayName="Tabla7" ref="K8:K12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" tableBorderDxfId="7">
+  <autoFilter ref="K8:K12" xr:uid="{DA8CFC28-218D-40FD-B2F3-FFEF060BD5FE}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4207A1E2-D102-448A-8E41-2B0C787CE274}" name="tipocomponente" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFDDDC11-55F3-42AB-8D08-60BFBC26FFDE}" name="Tabla4" displayName="Tabla4" ref="A1:F2" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:F2" xr:uid="{CFDDDC11-55F3-42AB-8D08-60BFBC26FFDE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C348E7DB-E1F4-47ED-833C-E07F11915132}" name="id"/>
@@ -259,6 +529,30 @@
     <tableColumn id="4" xr3:uid="{F70638F8-7A2D-496F-BB2C-200879EF1BC9}" name="valor"/>
     <tableColumn id="5" xr3:uid="{A87F6520-6AD0-4798-A9A2-FE243104468F}" name="orden"/>
     <tableColumn id="6" xr3:uid="{D8B70F46-DAB6-4F31-A89D-666212C04C8F}" name="pregunta"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C35FAF2A-9846-433D-863B-E47E742A457B}" name="Tabla19" displayName="Tabla19" ref="A1:C2" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C2" xr:uid="{C35FAF2A-9846-433D-863B-E47E742A457B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DAAACF8B-FBF4-4AC6-8207-F7A7F80DA517}" name="id"/>
+    <tableColumn id="2" xr3:uid="{B4AFBB12-52FA-48F6-82BE-E52F4EBA645F}" name="nombre"/>
+    <tableColumn id="3" xr3:uid="{21F78ABA-15DE-4066-9B2F-BA323D3CA2D7}" name="descripcion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F96B9528-DE0F-43D3-AA10-BD6AB221F282}" name="Tabla210" displayName="Tabla210" ref="A4:C5" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A4:C5" xr:uid="{F96B9528-DE0F-43D3-AA10-BD6AB221F282}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3FF872F5-2361-43BA-A778-35D3C5FE0569}" name="id"/>
+    <tableColumn id="2" xr3:uid="{0A9296AB-4B60-404F-BE30-8285ED3E028D}" name="nombre"/>
+    <tableColumn id="3" xr3:uid="{4CDBF43F-88B4-4A60-91D5-08798627CD23}" name="descripcion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,7 +858,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +908,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,10 +951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,9 +964,11 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -691,8 +987,11 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -711,25 +1010,89 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,9 +1100,12 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -759,7 +1125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -778,42 +1144,42 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="F16" s="2"/>
     </row>
@@ -841,13 +1207,182 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC472638-3555-4F0F-89A6-341871CC9228}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -1036,24 +1571,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1070,29 +1613,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/documents/Esquema-Preguntas-De-Perfiles.xlsx
+++ b/src/assets/documents/Esquema-Preguntas-De-Perfiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C367B6-E097-4B98-9BCA-18B0DC07FCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028CD52-D9D4-4498-A084-695CB747D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>nombre</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>Descripcion opcional 1</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>Fondos Comunes de Inversion (De renta fija)</t>
+  </si>
+  <si>
+    <t>RS2</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>RP1</t>
   </si>
 </sst>
 </file>
@@ -275,8 +296,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -297,41 +318,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -378,7 +365,41 @@
       </border>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -448,15 +469,26 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{85172B18-5EF8-4898-A83B-0ADAEC18BBD1}" name="Tabla412" displayName="Tabla412" ref="A10:F11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A10:F11" xr:uid="{85172B18-5EF8-4898-A83B-0ADAEC18BBD1}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{85172B18-5EF8-4898-A83B-0ADAEC18BBD1}" name="Tabla412" displayName="Tabla412" ref="A10:G12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A10:G12" xr:uid="{85172B18-5EF8-4898-A83B-0ADAEC18BBD1}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CE49D8BF-3E83-467C-A6F8-58EBD53BCF71}" name="id"/>
     <tableColumn id="2" xr3:uid="{D0FC9B7A-0799-4001-B6BC-6A0520FA751A}" name="instrumento"/>
     <tableColumn id="3" xr3:uid="{4BF3D802-A96B-4DEB-B4AC-1894723C7A16}" name="nombre"/>
     <tableColumn id="4" xr3:uid="{D320EDF4-F237-420D-89D1-DEBAC719317C}" name="valor"/>
     <tableColumn id="5" xr3:uid="{5B17A04A-F8A5-485A-BC9D-9832888E8B49}" name="orden"/>
     <tableColumn id="6" xr3:uid="{09DEBF7A-3293-463C-AF0B-B0669FAF5574}" name="pregunta"/>
+    <tableColumn id="8" xr3:uid="{9FE12050-7607-49D8-8882-BC9D30BF946E}" name="codigo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D83E0E3E-BAB4-4414-898D-53F6C0D18A10}" name="Tabla12" displayName="Tabla12" ref="G7:G9" totalsRowShown="0">
+  <autoFilter ref="G7:G9" xr:uid="{D83E0E3E-BAB4-4414-898D-53F6C0D18A10}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{6C95BEFE-84F8-46BE-8D61-B4927AF57CF8}" name="codigo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,15 +507,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64CE9328-4825-4217-9282-30EC473F48FD}" name="Tabla3" displayName="Tabla3" ref="A1:F2" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:F2" xr:uid="{64CE9328-4825-4217-9282-30EC473F48FD}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64CE9328-4825-4217-9282-30EC473F48FD}" name="Tabla3" displayName="Tabla3" ref="A1:G2" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:G2" xr:uid="{64CE9328-4825-4217-9282-30EC473F48FD}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB611283-148C-4006-AAD0-79E8E3DF0FD2}" name="id"/>
     <tableColumn id="2" xr3:uid="{8455322A-C6CC-434E-8187-9C001929E7CB}" name="enunciado"/>
     <tableColumn id="3" xr3:uid="{019032B3-8D44-4FFC-85AE-D8F5C28A1BFB}" name="descripcion"/>
     <tableColumn id="4" xr3:uid="{D0EE510E-A687-46E8-ACCF-2A589498D496}" name="tipocomponente"/>
     <tableColumn id="5" xr3:uid="{827C3652-9C35-439F-B152-739413E633FD}" name="categoria"/>
     <tableColumn id="6" xr3:uid="{47444B61-C767-4436-B9F8-83EBA5396C13}" name="seccion"/>
+    <tableColumn id="7" xr3:uid="{1C55281F-071B-4146-BF0F-D30C37B9BB97}" name="codigo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -510,25 +543,26 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DA8CFC28-218D-40FD-B2F3-FFEF060BD5FE}" name="Tabla7" displayName="Tabla7" ref="K8:K12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DA8CFC28-218D-40FD-B2F3-FFEF060BD5FE}" name="Tabla7" displayName="Tabla7" ref="K8:K12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="K8:K12" xr:uid="{DA8CFC28-218D-40FD-B2F3-FFEF060BD5FE}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4207A1E2-D102-448A-8E41-2B0C787CE274}" name="tipocomponente" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4207A1E2-D102-448A-8E41-2B0C787CE274}" name="tipocomponente" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFDDDC11-55F3-42AB-8D08-60BFBC26FFDE}" name="Tabla4" displayName="Tabla4" ref="A1:F2" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:F2" xr:uid="{CFDDDC11-55F3-42AB-8D08-60BFBC26FFDE}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFDDDC11-55F3-42AB-8D08-60BFBC26FFDE}" name="Tabla4" displayName="Tabla4" ref="A1:G2" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G2" xr:uid="{CFDDDC11-55F3-42AB-8D08-60BFBC26FFDE}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C348E7DB-E1F4-47ED-833C-E07F11915132}" name="id"/>
     <tableColumn id="2" xr3:uid="{98FAF7DF-4A2F-44EA-B232-1BCFF07C5F97}" name="instrumento"/>
     <tableColumn id="3" xr3:uid="{61AD4026-E4F5-4FB2-A033-CCBD77496AF0}" name="nombre"/>
     <tableColumn id="4" xr3:uid="{F70638F8-7A2D-496F-BB2C-200879EF1BC9}" name="valor"/>
     <tableColumn id="5" xr3:uid="{A87F6520-6AD0-4798-A9A2-FE243104468F}" name="orden"/>
     <tableColumn id="6" xr3:uid="{D8B70F46-DAB6-4F31-A89D-666212C04C8F}" name="pregunta"/>
+    <tableColumn id="7" xr3:uid="{D217DB83-4FFE-450B-BC2B-B681A13DBFCA}" name="codigo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -953,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +1021,9 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="I1" t="s">
         <v>20</v>
       </c>
@@ -999,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1009,6 +1046,9 @@
       </c>
       <c r="F2" t="s">
         <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>21</v>
@@ -1092,7 +1132,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1164,9 @@
       <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1142,7 +1185,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1216,21 +1262,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC472638-3555-4F0F-89A6-341871CC9228}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1252,7 +1299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1263,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1274,7 +1321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1293,8 +1340,11 @@
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1313,8 +1363,11 @@
       <c r="F8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1333,8 +1386,11 @@
       <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1351,16 +1407,43 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
